--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Sudoku-Solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A751026-D83A-4DA8-9217-A3B44C190F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B744A6A9-1F1A-49A8-A4DB-5BE501EF9193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Sudoku</t>
+  </si>
+  <si>
+    <t>sa</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
@@ -530,7 +533,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -543,7 +546,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -554,7 +557,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5">
         <v>4</v>
@@ -567,7 +570,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>5</v>
@@ -580,7 +583,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -595,7 +598,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -608,7 +611,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -619,7 +622,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -627,10 +630,12 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -641,7 +646,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -653,8 +658,11 @@
       <c r="I10" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Sudoku-Solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e986d68d94e8a601/Documents/GitHub/Sudoku-Solver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B744A6A9-1F1A-49A8-A4DB-5BE501EF9193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B744A6A9-1F1A-49A8-A4DB-5BE501EF9193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE5F7A4-7E65-47F6-AA76-153E4A567E88}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Sudoku</t>
-  </si>
-  <si>
-    <t>sa</t>
   </si>
 </sst>
 </file>
@@ -260,6 +257,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,15 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -546,64 +547,92 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
-      <c r="B4" s="8">
-        <v>5</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9">
+        <v>7</v>
+      </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2">
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -611,58 +640,89 @@
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="9">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9">
+        <v>9</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="2">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="5">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="7">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7</v>
+      </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9">
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
+      <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
